--- a/Customer_Role_table.xlsx
+++ b/Customer_Role_table.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="14">
   <si>
     <t>CUSTOMER_ID</t>
   </si>
@@ -36,6 +36,27 @@
   </si>
   <si>
     <t>select CUSTOMER_ID CUSTOMER_ID, PASSWORD PASSWORD, ROLE ROLE from (select * from "HR"."CUSTOMER_ROLE")</t>
+  </si>
+  <si>
+    <t>USERNAME</t>
+  </si>
+  <si>
+    <t>gaurav</t>
+  </si>
+  <si>
+    <t>rohan</t>
+  </si>
+  <si>
+    <t>amit</t>
+  </si>
+  <si>
+    <t>rahul</t>
+  </si>
+  <si>
+    <t>rohit</t>
+  </si>
+  <si>
+    <t>ENABLED</t>
   </si>
 </sst>
 </file>
@@ -412,84 +433,121 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I22" sqref="I22"/>
+      <selection pane="bottomLeft" activeCell="E3" sqref="E3:E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.7109375" customWidth="1"/>
+    <col min="3" max="3" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="E1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" s="1">
         <v>100001</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
         <v>3</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:3">
+      <c r="E2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" s="1">
         <v>100002</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
         <v>3</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
+      <c r="E3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" s="1">
         <v>100003</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
         <v>3</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:3">
+      <c r="E4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" s="1">
         <v>100004</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" t="s">
         <v>3</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="6" spans="1:3">
+      <c r="E5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" s="1">
         <v>100005</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" t="s">
         <v>3</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>5</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
